--- a/web/data/e-books/G1/english/Words.xlsx
+++ b/web/data/e-books/G1/english/Words.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="782">
   <si>
     <t>Word</t>
   </si>
@@ -1441,21 +1441,6 @@
   </si>
   <si>
     <t>فعلى / فوق</t>
-  </si>
-  <si>
-    <t>I'm  / I am</t>
-  </si>
-  <si>
-    <t>You're / You are</t>
-  </si>
-  <si>
-    <t>He's / He is</t>
-  </si>
-  <si>
-    <t>She's / She is</t>
-  </si>
-  <si>
-    <t>They're / They are</t>
   </si>
   <si>
     <t>Is Name</t>
@@ -2750,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="D336" sqref="D336"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2780,10 +2765,10 @@
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2791,19 +2776,19 @@
         <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -2817,19 +2802,19 @@
         <v>-1</v>
       </c>
       <c r="C3" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -2843,19 +2828,19 @@
         <v>-1</v>
       </c>
       <c r="C4" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -2869,19 +2854,19 @@
         <v>-1</v>
       </c>
       <c r="C5" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -2895,19 +2880,19 @@
         <v>-1</v>
       </c>
       <c r="C6" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -2921,19 +2906,19 @@
         <v>-1</v>
       </c>
       <c r="C7" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E7" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -2947,19 +2932,19 @@
         <v>-1</v>
       </c>
       <c r="C8" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D8" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E8" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -2973,19 +2958,19 @@
         <v>-1</v>
       </c>
       <c r="C9" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D9" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E9" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F9" t="s">
         <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -2999,19 +2984,19 @@
         <v>-1</v>
       </c>
       <c r="C10" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D10" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E10" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -3025,19 +3010,19 @@
         <v>-1</v>
       </c>
       <c r="C11" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D11" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E11" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F11" t="s">
         <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -3051,19 +3036,19 @@
         <v>-1</v>
       </c>
       <c r="C12" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -3077,19 +3062,19 @@
         <v>-1</v>
       </c>
       <c r="C13" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F13" t="s">
         <v>244</v>
       </c>
       <c r="G13" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -3103,19 +3088,19 @@
         <v>-1</v>
       </c>
       <c r="C14" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F14" t="s">
         <v>245</v>
       </c>
       <c r="G14" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -3129,19 +3114,19 @@
         <v>-1</v>
       </c>
       <c r="C15" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F15" t="s">
         <v>246</v>
       </c>
       <c r="G15" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -3155,19 +3140,19 @@
         <v>-1</v>
       </c>
       <c r="C16" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F16" t="s">
         <v>247</v>
       </c>
       <c r="G16" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -3181,19 +3166,19 @@
         <v>-1</v>
       </c>
       <c r="C17" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F17" t="s">
         <v>248</v>
       </c>
       <c r="G17" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -3207,19 +3192,19 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F18" t="s">
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -3233,19 +3218,19 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F19" t="s">
         <v>278</v>
       </c>
       <c r="G19" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -3259,19 +3244,19 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F20" t="s">
         <v>277</v>
       </c>
       <c r="G20" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -3285,19 +3270,19 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F21" t="s">
         <v>249</v>
       </c>
       <c r="G21" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -3311,19 +3296,19 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F22" t="s">
         <v>250</v>
       </c>
       <c r="G22" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -3337,19 +3322,19 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F23" t="s">
         <v>251</v>
       </c>
       <c r="G23" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -3363,19 +3348,19 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D24" t="s">
         <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F24" t="s">
         <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -3389,19 +3374,19 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D25" t="s">
         <v>253</v>
       </c>
       <c r="E25" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F25" t="s">
         <v>254</v>
       </c>
       <c r="G25" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -3415,19 +3400,19 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D26" t="s">
         <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F26" t="s">
         <v>255</v>
       </c>
       <c r="G26" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -3441,19 +3426,19 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F27" t="s">
         <v>256</v>
       </c>
       <c r="G27" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -3467,19 +3452,19 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D28" t="s">
         <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F28" t="s">
         <v>257</v>
       </c>
       <c r="G28" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -3493,19 +3478,19 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D29" t="s">
         <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F29" t="s">
         <v>258</v>
       </c>
       <c r="G29" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -3519,19 +3504,19 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F30" t="s">
         <v>259</v>
       </c>
       <c r="G30" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -3545,19 +3530,19 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D31" t="s">
         <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F31" t="s">
         <v>260</v>
       </c>
       <c r="G31" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -3571,19 +3556,19 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D32" t="s">
         <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F32" t="s">
         <v>261</v>
       </c>
       <c r="G32" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -3597,19 +3582,19 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D33" t="s">
         <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F33" t="s">
         <v>262</v>
       </c>
       <c r="G33" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
@@ -3623,19 +3608,19 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D34" t="s">
         <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F34" t="s">
         <v>263</v>
       </c>
       <c r="G34" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -3649,19 +3634,19 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D35" t="s">
         <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F35" t="s">
         <v>264</v>
       </c>
       <c r="G35" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -3675,19 +3660,19 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D36" t="s">
         <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F36" t="s">
         <v>265</v>
       </c>
       <c r="G36" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -3701,19 +3686,19 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D37" t="s">
         <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F37" t="s">
         <v>266</v>
       </c>
       <c r="G37" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -3727,19 +3712,19 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D38" t="s">
         <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F38" t="s">
         <v>273</v>
       </c>
       <c r="G38" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H38" t="b">
         <v>1</v>
@@ -3753,19 +3738,19 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D39" t="s">
         <v>44</v>
       </c>
       <c r="E39" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F39" t="s">
         <v>274</v>
       </c>
       <c r="G39" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H39" t="b">
         <v>1</v>
@@ -3779,19 +3764,19 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D40" t="s">
         <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F40" t="s">
         <v>267</v>
       </c>
       <c r="G40" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H40" t="b">
         <v>1</v>
@@ -3805,19 +3790,19 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D41" t="s">
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F41" t="s">
         <v>275</v>
       </c>
       <c r="G41" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
@@ -3831,19 +3816,19 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D42" t="s">
         <v>47</v>
       </c>
       <c r="E42" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F42" t="s">
         <v>268</v>
       </c>
       <c r="G42" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
@@ -3857,19 +3842,19 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D43" t="s">
         <v>48</v>
       </c>
       <c r="E43" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F43" t="s">
         <v>269</v>
       </c>
       <c r="G43" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -3883,19 +3868,19 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D44" t="s">
         <v>49</v>
       </c>
       <c r="E44" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F44" t="s">
         <v>276</v>
       </c>
       <c r="G44" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -3909,19 +3894,19 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D45" t="s">
         <v>50</v>
       </c>
       <c r="E45" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F45" t="s">
         <v>270</v>
       </c>
       <c r="G45" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -3935,19 +3920,19 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D46" t="s">
         <v>51</v>
       </c>
       <c r="E46" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F46" t="s">
         <v>271</v>
       </c>
       <c r="G46" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
@@ -3961,19 +3946,19 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D47" t="s">
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F47" t="s">
         <v>279</v>
       </c>
       <c r="G47" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -3987,19 +3972,19 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D48" t="s">
         <v>53</v>
       </c>
       <c r="E48" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F48" t="s">
         <v>280</v>
       </c>
       <c r="G48" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -4013,19 +3998,19 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D49" t="s">
         <v>54</v>
       </c>
       <c r="E49" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F49" t="s">
         <v>272</v>
       </c>
       <c r="G49" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -4039,19 +4024,19 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D50" t="s">
         <v>55</v>
       </c>
       <c r="E50" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F50" t="s">
         <v>281</v>
       </c>
       <c r="G50" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
@@ -4062,19 +4047,19 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D51" t="s">
         <v>283</v>
       </c>
       <c r="E51" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F51" t="s">
         <v>285</v>
       </c>
       <c r="G51" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -4085,19 +4070,19 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D52" t="s">
         <v>284</v>
       </c>
       <c r="E52" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F52" t="s">
         <v>286</v>
       </c>
       <c r="G52" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -4111,19 +4096,19 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D53" t="s">
         <v>57</v>
       </c>
       <c r="E53" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F53" t="s">
         <v>282</v>
       </c>
       <c r="G53" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -4137,19 +4122,19 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D54" t="s">
         <v>56</v>
       </c>
       <c r="E54" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F54" t="s">
         <v>287</v>
       </c>
       <c r="G54" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
@@ -4163,19 +4148,19 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D55" t="s">
         <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F55" t="s">
         <v>288</v>
       </c>
       <c r="G55" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
@@ -4189,19 +4174,19 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D56" t="s">
         <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F56" t="s">
         <v>289</v>
       </c>
       <c r="G56" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -4215,19 +4200,19 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D57" t="s">
         <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F57" t="s">
         <v>290</v>
       </c>
       <c r="G57" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -4241,19 +4226,19 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D58" t="s">
         <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F58" t="s">
         <v>291</v>
       </c>
       <c r="G58" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -4267,19 +4252,19 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D59" t="s">
         <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F59" t="s">
         <v>292</v>
       </c>
       <c r="G59" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
@@ -4293,19 +4278,19 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D60" t="s">
         <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F60" t="s">
         <v>293</v>
       </c>
       <c r="G60" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
@@ -4319,19 +4304,19 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D61" t="s">
         <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F61" t="s">
         <v>294</v>
       </c>
       <c r="G61" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -4345,19 +4330,19 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D62" t="s">
         <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F62" t="s">
         <v>295</v>
       </c>
       <c r="G62" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -4371,19 +4356,19 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D63" t="s">
         <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F63" t="s">
         <v>296</v>
       </c>
       <c r="G63" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -4397,19 +4382,19 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D64" t="s">
         <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F64" t="s">
         <v>297</v>
       </c>
       <c r="G64" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
@@ -4423,19 +4408,19 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D65" t="s">
         <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F65" t="s">
         <v>298</v>
       </c>
       <c r="G65" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
@@ -4449,19 +4434,19 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D66" t="s">
         <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F66" t="s">
         <v>299</v>
       </c>
       <c r="G66" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
@@ -4475,19 +4460,19 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D67" t="s">
         <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F67" t="s">
         <v>300</v>
       </c>
       <c r="G67" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
@@ -4501,19 +4486,19 @@
         <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D68" t="s">
         <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F68" t="s">
         <v>301</v>
       </c>
       <c r="G68" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
@@ -4527,19 +4512,19 @@
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D69" t="s">
         <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F69" t="s">
         <v>302</v>
       </c>
       <c r="G69" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H69" t="b">
         <v>1</v>
@@ -4553,19 +4538,19 @@
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D70" t="s">
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F70" t="s">
         <v>303</v>
       </c>
       <c r="G70" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -4579,19 +4564,19 @@
         <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D71" t="s">
         <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F71" t="s">
         <v>304</v>
       </c>
       <c r="G71" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -4605,19 +4590,19 @@
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D72" t="s">
         <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F72" t="s">
         <v>305</v>
       </c>
       <c r="G72" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -4631,19 +4616,19 @@
         <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D73" t="s">
         <v>77</v>
       </c>
       <c r="E73" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F73" t="s">
         <v>306</v>
       </c>
       <c r="G73" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -4657,19 +4642,19 @@
         <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D74" t="s">
         <v>78</v>
       </c>
       <c r="E74" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F74" t="s">
         <v>307</v>
       </c>
       <c r="G74" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
@@ -4683,19 +4668,19 @@
         <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D75" t="s">
         <v>79</v>
       </c>
       <c r="E75" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F75" t="s">
         <v>308</v>
       </c>
       <c r="G75" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -4709,19 +4694,19 @@
         <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D76" t="s">
         <v>80</v>
       </c>
       <c r="E76" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F76" t="s">
         <v>309</v>
       </c>
       <c r="G76" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
@@ -4735,19 +4720,19 @@
         <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D77" t="s">
         <v>81</v>
       </c>
       <c r="E77" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F77" t="s">
         <v>310</v>
       </c>
       <c r="G77" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H77" t="b">
         <v>1</v>
@@ -4761,19 +4746,19 @@
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D78" t="s">
         <v>82</v>
       </c>
       <c r="E78" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F78" t="s">
         <v>311</v>
       </c>
       <c r="G78" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -4787,19 +4772,19 @@
         <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D79" t="s">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F79" t="s">
         <v>307</v>
       </c>
       <c r="G79" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H79" t="b">
         <v>1</v>
@@ -4813,19 +4798,19 @@
         <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D80" t="s">
         <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F80" t="s">
         <v>312</v>
       </c>
       <c r="G80" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -4839,19 +4824,19 @@
         <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D81" t="s">
         <v>84</v>
       </c>
       <c r="E81" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F81" t="s">
         <v>313</v>
       </c>
       <c r="G81" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
@@ -4865,19 +4850,19 @@
         <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D82" t="s">
         <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F82" t="s">
         <v>314</v>
       </c>
       <c r="G82" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
@@ -4891,19 +4876,19 @@
         <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D83" t="s">
         <v>86</v>
       </c>
       <c r="E83" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F83" t="s">
         <v>315</v>
       </c>
       <c r="G83" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H83" t="b">
         <v>1</v>
@@ -4917,19 +4902,19 @@
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D84" t="s">
         <v>87</v>
       </c>
       <c r="E84" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F84" t="s">
         <v>316</v>
       </c>
       <c r="G84" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H84" t="b">
         <v>1</v>
@@ -4943,19 +4928,19 @@
         <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D85" t="s">
         <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F85" t="s">
         <v>317</v>
       </c>
       <c r="G85" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
@@ -4969,19 +4954,19 @@
         <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D86" t="s">
         <v>89</v>
       </c>
       <c r="E86" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F86" t="s">
         <v>318</v>
       </c>
       <c r="G86" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
@@ -4995,19 +4980,19 @@
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D87" t="s">
         <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F87" t="s">
         <v>319</v>
       </c>
       <c r="G87" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -5021,19 +5006,19 @@
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D88" t="s">
         <v>91</v>
       </c>
       <c r="E88" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F88" t="s">
         <v>320</v>
       </c>
       <c r="G88" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
@@ -5047,19 +5032,19 @@
         <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D89" t="s">
         <v>92</v>
       </c>
       <c r="E89" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F89" t="s">
         <v>321</v>
       </c>
       <c r="G89" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -5073,19 +5058,19 @@
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D90" t="s">
         <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F90" t="s">
         <v>322</v>
       </c>
       <c r="G90" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H90" t="b">
         <v>1</v>
@@ -5099,19 +5084,19 @@
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D91" t="s">
         <v>94</v>
       </c>
       <c r="E91" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F91" t="s">
         <v>323</v>
       </c>
       <c r="G91" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -5125,19 +5110,19 @@
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D92" t="s">
         <v>95</v>
       </c>
       <c r="E92" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F92" t="s">
         <v>324</v>
       </c>
       <c r="G92" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -5151,19 +5136,19 @@
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D93" t="s">
         <v>96</v>
       </c>
       <c r="E93" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F93" t="s">
         <v>325</v>
       </c>
       <c r="G93" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -5177,19 +5162,19 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D94" t="s">
         <v>97</v>
       </c>
       <c r="E94" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F94" t="s">
         <v>326</v>
       </c>
       <c r="G94" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H94" t="b">
         <v>1</v>
@@ -5203,19 +5188,19 @@
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D95" t="s">
         <v>98</v>
       </c>
       <c r="E95" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F95" t="s">
         <v>327</v>
       </c>
       <c r="G95" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
@@ -5229,19 +5214,19 @@
         <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D96" t="s">
         <v>100</v>
       </c>
       <c r="E96" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F96" t="s">
         <v>328</v>
       </c>
       <c r="G96" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H96" t="b">
         <v>1</v>
@@ -5255,19 +5240,19 @@
         <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D97" t="s">
         <v>99</v>
       </c>
       <c r="E97" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F97" t="s">
         <v>329</v>
       </c>
       <c r="G97" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -5281,19 +5266,19 @@
         <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D98" t="s">
         <v>101</v>
       </c>
       <c r="E98" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F98" t="s">
         <v>330</v>
       </c>
       <c r="G98" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
@@ -5307,19 +5292,19 @@
         <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D99" t="s">
         <v>102</v>
       </c>
       <c r="E99" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F99" t="s">
         <v>331</v>
       </c>
       <c r="G99" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
@@ -5333,19 +5318,19 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D100" t="s">
         <v>103</v>
       </c>
       <c r="E100" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F100" t="s">
         <v>332</v>
       </c>
       <c r="G100" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
@@ -5359,19 +5344,19 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D101" t="s">
         <v>45</v>
       </c>
       <c r="E101" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F101" t="s">
         <v>267</v>
       </c>
       <c r="G101" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
@@ -5385,19 +5370,19 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D102" t="s">
         <v>104</v>
       </c>
       <c r="E102" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F102" t="s">
         <v>333</v>
       </c>
       <c r="G102" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H102" t="b">
         <v>1</v>
@@ -5411,19 +5396,19 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D103" t="s">
         <v>105</v>
       </c>
       <c r="E103" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F103" t="s">
         <v>334</v>
       </c>
       <c r="G103" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H103" t="b">
         <v>1</v>
@@ -5437,19 +5422,19 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D104" t="s">
         <v>106</v>
       </c>
       <c r="E104" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F104" t="s">
         <v>335</v>
       </c>
       <c r="G104" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H104" t="b">
         <v>1</v>
@@ -5463,19 +5448,19 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D105" t="s">
         <v>107</v>
       </c>
       <c r="E105" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F105" t="s">
         <v>336</v>
       </c>
       <c r="G105" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H105" t="b">
         <v>1</v>
@@ -5489,19 +5474,19 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D106" t="s">
         <v>108</v>
       </c>
       <c r="E106" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F106" t="s">
         <v>337</v>
       </c>
       <c r="G106" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -5515,19 +5500,19 @@
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D107" t="s">
         <v>109</v>
       </c>
       <c r="E107" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F107" t="s">
         <v>338</v>
       </c>
       <c r="G107" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -5541,19 +5526,19 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D108" t="s">
         <v>110</v>
       </c>
       <c r="E108" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F108" t="s">
         <v>339</v>
       </c>
       <c r="G108" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H108" t="b">
         <v>0</v>
@@ -5567,19 +5552,19 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D109" t="s">
         <v>111</v>
       </c>
       <c r="E109" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F109" t="s">
         <v>340</v>
       </c>
       <c r="G109" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
@@ -5593,19 +5578,19 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D110" t="s">
         <v>112</v>
       </c>
       <c r="E110" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F110" t="s">
         <v>341</v>
       </c>
       <c r="G110" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
@@ -5619,19 +5604,19 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D111" t="s">
         <v>113</v>
       </c>
       <c r="E111" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F111" t="s">
         <v>342</v>
       </c>
       <c r="G111" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H111" t="b">
         <v>0</v>
@@ -5645,19 +5630,19 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D112" t="s">
         <v>114</v>
       </c>
       <c r="E112" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F112" t="s">
         <v>343</v>
       </c>
       <c r="G112" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H112" t="b">
         <v>0</v>
@@ -5671,19 +5656,19 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D113" t="s">
         <v>115</v>
       </c>
       <c r="E113" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F113" t="s">
         <v>344</v>
       </c>
       <c r="G113" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H113" t="b">
         <v>0</v>
@@ -5697,19 +5682,19 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D114" t="s">
         <v>116</v>
       </c>
       <c r="E114" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F114" t="s">
         <v>345</v>
       </c>
       <c r="G114" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H114" t="b">
         <v>0</v>
@@ -5723,19 +5708,19 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D115" t="s">
         <v>117</v>
       </c>
       <c r="E115" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F115" t="s">
         <v>351</v>
       </c>
       <c r="G115" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H115" t="b">
         <v>0</v>
@@ -5749,19 +5734,19 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D116" t="s">
         <v>118</v>
       </c>
       <c r="E116" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F116" t="s">
         <v>346</v>
       </c>
       <c r="G116" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H116" t="b">
         <v>0</v>
@@ -5775,19 +5760,19 @@
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D117" t="s">
         <v>119</v>
       </c>
       <c r="E117" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F117" t="s">
         <v>347</v>
       </c>
       <c r="G117" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H117" t="b">
         <v>1</v>
@@ -5801,19 +5786,19 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D118" t="s">
         <v>120</v>
       </c>
       <c r="E118" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F118" t="s">
         <v>348</v>
       </c>
       <c r="G118" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H118" t="b">
         <v>1</v>
@@ -5827,19 +5812,19 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D119" t="s">
         <v>121</v>
       </c>
       <c r="E119" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F119" t="s">
         <v>349</v>
       </c>
       <c r="G119" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H119" t="b">
         <v>0</v>
@@ -5853,19 +5838,19 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D120" t="s">
         <v>122</v>
       </c>
       <c r="E120" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F120" t="s">
         <v>352</v>
       </c>
       <c r="G120" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H120" t="b">
         <v>1</v>
@@ -5879,19 +5864,19 @@
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D121" t="s">
         <v>123</v>
       </c>
       <c r="E121" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F121" t="s">
         <v>350</v>
       </c>
       <c r="G121" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H121" t="b">
         <v>0</v>
@@ -5905,19 +5890,19 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D122" t="s">
         <v>124</v>
       </c>
       <c r="E122" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F122" t="s">
         <v>353</v>
       </c>
       <c r="G122" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H122" t="b">
         <v>0</v>
@@ -5931,19 +5916,19 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D123" t="s">
         <v>125</v>
       </c>
       <c r="E123" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F123" t="s">
         <v>354</v>
       </c>
       <c r="G123" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H123" t="b">
         <v>0</v>
@@ -5957,19 +5942,19 @@
         <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D124" t="s">
         <v>128</v>
       </c>
       <c r="E124" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F124" t="s">
         <v>355</v>
       </c>
       <c r="G124" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H124" t="b">
         <v>1</v>
@@ -5983,19 +5968,19 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D125" t="s">
         <v>129</v>
       </c>
       <c r="E125" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F125" t="s">
         <v>356</v>
       </c>
       <c r="G125" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H125" t="b">
         <v>1</v>
@@ -6009,19 +5994,19 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D126" t="s">
         <v>130</v>
       </c>
       <c r="E126" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F126" t="s">
         <v>357</v>
       </c>
       <c r="G126" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H126" t="b">
         <v>1</v>
@@ -6035,19 +6020,19 @@
         <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D127" t="s">
         <v>131</v>
       </c>
       <c r="E127" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F127" t="s">
         <v>358</v>
       </c>
       <c r="G127" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H127" t="b">
         <v>0</v>
@@ -6061,19 +6046,19 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D128" t="s">
         <v>132</v>
       </c>
       <c r="E128" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F128" t="s">
         <v>364</v>
       </c>
       <c r="G128" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H128" t="b">
         <v>1</v>
@@ -6087,19 +6072,19 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D129" t="s">
         <v>133</v>
       </c>
       <c r="E129" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F129" t="s">
         <v>365</v>
       </c>
       <c r="G129" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H129" t="b">
         <v>1</v>
@@ -6113,19 +6098,19 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D130" t="s">
         <v>134</v>
       </c>
       <c r="E130" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F130" t="s">
         <v>359</v>
       </c>
       <c r="G130" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H130" t="b">
         <v>1</v>
@@ -6139,19 +6124,19 @@
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D131" t="s">
         <v>135</v>
       </c>
       <c r="E131" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F131" t="s">
         <v>366</v>
       </c>
       <c r="G131" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H131" t="b">
         <v>1</v>
@@ -6165,19 +6150,19 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D132" t="s">
         <v>136</v>
       </c>
       <c r="E132" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F132" t="s">
         <v>298</v>
       </c>
       <c r="G132" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H132" t="b">
         <v>0</v>
@@ -6191,19 +6176,19 @@
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D133" t="s">
         <v>137</v>
       </c>
       <c r="E133" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F133" t="s">
         <v>367</v>
       </c>
       <c r="G133" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H133" t="b">
         <v>0</v>
@@ -6217,19 +6202,19 @@
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D134" t="s">
         <v>138</v>
       </c>
       <c r="E134" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F134" t="s">
         <v>360</v>
       </c>
       <c r="G134" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H134" t="b">
         <v>0</v>
@@ -6243,19 +6228,19 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D135" t="s">
         <v>139</v>
       </c>
       <c r="E135" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F135" t="s">
         <v>361</v>
       </c>
       <c r="G135" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H135" t="b">
         <v>0</v>
@@ -6269,19 +6254,19 @@
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D136" t="s">
         <v>140</v>
       </c>
       <c r="E136" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F136" t="s">
         <v>368</v>
       </c>
       <c r="G136" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H136" t="b">
         <v>0</v>
@@ -6295,19 +6280,19 @@
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D137" t="s">
         <v>141</v>
       </c>
       <c r="E137" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F137" t="s">
         <v>369</v>
       </c>
       <c r="G137" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H137" t="b">
         <v>0</v>
@@ -6321,19 +6306,19 @@
         <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D138" t="s">
         <v>142</v>
       </c>
       <c r="E138" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F138" t="s">
         <v>370</v>
       </c>
       <c r="G138" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H138" t="b">
         <v>0</v>
@@ -6347,19 +6332,19 @@
         <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D139" t="s">
         <v>143</v>
       </c>
       <c r="E139" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F139" t="s">
         <v>362</v>
       </c>
       <c r="G139" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H139" t="b">
         <v>0</v>
@@ -6373,19 +6358,19 @@
         <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D140" t="s">
         <v>144</v>
       </c>
       <c r="E140" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F140" t="s">
         <v>363</v>
       </c>
       <c r="G140" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H140" t="b">
         <v>1</v>
@@ -6399,19 +6384,19 @@
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D141" t="s">
         <v>145</v>
       </c>
       <c r="E141" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F141" t="s">
         <v>397</v>
       </c>
       <c r="G141" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H141" t="b">
         <v>0</v>
@@ -6425,19 +6410,19 @@
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D142" t="s">
         <v>146</v>
       </c>
       <c r="E142" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F142" t="s">
         <v>398</v>
       </c>
       <c r="G142" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H142" t="b">
         <v>1</v>
@@ -6451,19 +6436,19 @@
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D143" t="s">
         <v>147</v>
       </c>
       <c r="E143" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F143" t="s">
         <v>371</v>
       </c>
       <c r="G143" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H143" t="b">
         <v>1</v>
@@ -6477,19 +6462,19 @@
         <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D144" t="s">
         <v>148</v>
       </c>
       <c r="E144" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F144" t="s">
         <v>372</v>
       </c>
       <c r="G144" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H144" t="b">
         <v>1</v>
@@ -6503,19 +6488,19 @@
         <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D145" t="s">
         <v>149</v>
       </c>
       <c r="E145" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F145" t="s">
         <v>373</v>
       </c>
       <c r="G145" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H145" t="b">
         <v>1</v>
@@ -6529,19 +6514,19 @@
         <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D146" t="s">
         <v>150</v>
       </c>
       <c r="E146" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F146" t="s">
         <v>374</v>
       </c>
       <c r="G146" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H146" t="b">
         <v>1</v>
@@ -6555,19 +6540,19 @@
         <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D147" t="s">
         <v>151</v>
       </c>
       <c r="E147" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F147" t="s">
         <v>375</v>
       </c>
       <c r="G147" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H147" t="b">
         <v>1</v>
@@ -6581,19 +6566,19 @@
         <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D148" t="s">
         <v>152</v>
       </c>
       <c r="E148" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F148" t="s">
         <v>399</v>
       </c>
       <c r="G148" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H148" t="b">
         <v>1</v>
@@ -6607,19 +6592,19 @@
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D149" t="s">
         <v>153</v>
       </c>
       <c r="E149" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F149" t="s">
         <v>400</v>
       </c>
       <c r="G149" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H149" t="b">
         <v>1</v>
@@ -6633,19 +6618,19 @@
         <v>5</v>
       </c>
       <c r="C150" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D150" t="s">
         <v>154</v>
       </c>
       <c r="E150" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F150" t="s">
         <v>401</v>
       </c>
       <c r="G150" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H150" t="b">
         <v>0</v>
@@ -6659,19 +6644,19 @@
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D151" t="s">
         <v>155</v>
       </c>
       <c r="E151" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F151" t="s">
         <v>402</v>
       </c>
       <c r="G151" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H151" t="b">
         <v>0</v>
@@ -6685,19 +6670,19 @@
         <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D152" t="s">
         <v>156</v>
       </c>
       <c r="E152" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F152" t="s">
         <v>376</v>
       </c>
       <c r="G152" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H152" t="b">
         <v>0</v>
@@ -6711,19 +6696,19 @@
         <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D153" t="s">
         <v>157</v>
       </c>
       <c r="E153" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F153" t="s">
         <v>377</v>
       </c>
       <c r="G153" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H153" t="b">
         <v>0</v>
@@ -6737,19 +6722,19 @@
         <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D154" t="s">
         <v>158</v>
       </c>
       <c r="E154" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F154" t="s">
         <v>378</v>
       </c>
       <c r="G154" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H154" t="b">
         <v>0</v>
@@ -6763,19 +6748,19 @@
         <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D155" t="s">
         <v>159</v>
       </c>
       <c r="E155" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F155" t="s">
         <v>379</v>
       </c>
       <c r="G155" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H155" t="b">
         <v>1</v>
@@ -6789,19 +6774,19 @@
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D156" t="s">
         <v>160</v>
       </c>
       <c r="E156" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F156" t="s">
         <v>380</v>
       </c>
       <c r="G156" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H156" t="b">
         <v>1</v>
@@ -6815,19 +6800,19 @@
         <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D157" t="s">
         <v>144</v>
       </c>
       <c r="E157" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F157" t="s">
         <v>363</v>
       </c>
       <c r="G157" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H157" t="b">
         <v>1</v>
@@ -6841,19 +6826,19 @@
         <v>5</v>
       </c>
       <c r="C158" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D158" t="s">
         <v>161</v>
       </c>
       <c r="E158" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F158" t="s">
         <v>381</v>
       </c>
       <c r="G158" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H158" t="b">
         <v>1</v>
@@ -6867,19 +6852,19 @@
         <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D159" t="s">
         <v>162</v>
       </c>
       <c r="E159" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F159" t="s">
         <v>382</v>
       </c>
       <c r="G159" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H159" t="b">
         <v>1</v>
@@ -6893,19 +6878,19 @@
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D160" t="s">
         <v>163</v>
       </c>
       <c r="E160" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F160" t="s">
         <v>383</v>
       </c>
       <c r="G160" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H160" t="b">
         <v>1</v>
@@ -6919,19 +6904,19 @@
         <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D161" t="s">
         <v>164</v>
       </c>
       <c r="E161" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F161" t="s">
         <v>403</v>
       </c>
       <c r="G161" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H161" t="b">
         <v>0</v>
@@ -6945,19 +6930,19 @@
         <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D162" t="s">
         <v>165</v>
       </c>
       <c r="E162" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F162" t="s">
         <v>384</v>
       </c>
       <c r="G162" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H162" t="b">
         <v>0</v>
@@ -6971,19 +6956,19 @@
         <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D163" t="s">
         <v>166</v>
       </c>
       <c r="E163" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F163" t="s">
         <v>385</v>
       </c>
       <c r="G163" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H163" t="b">
         <v>0</v>
@@ -6997,19 +6982,19 @@
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D164" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="E164" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F164" t="s">
         <v>386</v>
       </c>
       <c r="G164" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H164" t="b">
         <v>0</v>
@@ -7023,19 +7008,19 @@
         <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D165" t="s">
         <v>168</v>
       </c>
       <c r="E165" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F165" t="s">
         <v>404</v>
       </c>
       <c r="G165" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H165" t="b">
         <v>0</v>
@@ -7049,19 +7034,19 @@
         <v>5</v>
       </c>
       <c r="C166" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D166" t="s">
         <v>169</v>
       </c>
       <c r="E166" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F166" t="s">
         <v>387</v>
       </c>
       <c r="G166" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H166" t="b">
         <v>0</v>
@@ -7075,19 +7060,19 @@
         <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D167" t="s">
         <v>170</v>
       </c>
       <c r="E167" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F167" t="s">
         <v>405</v>
       </c>
       <c r="G167" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H167" t="b">
         <v>0</v>
@@ -7101,19 +7086,19 @@
         <v>5</v>
       </c>
       <c r="C168" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D168" t="s">
         <v>171</v>
       </c>
       <c r="E168" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F168" t="s">
         <v>388</v>
       </c>
       <c r="G168" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H168" t="b">
         <v>1</v>
@@ -7127,19 +7112,19 @@
         <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D169" t="s">
         <v>172</v>
       </c>
       <c r="E169" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F169" t="s">
         <v>406</v>
       </c>
       <c r="G169" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H169" t="b">
         <v>1</v>
@@ -7153,19 +7138,19 @@
         <v>6</v>
       </c>
       <c r="C170" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D170" t="s">
         <v>67</v>
       </c>
       <c r="E170" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F170" t="s">
         <v>297</v>
       </c>
       <c r="G170" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H170" t="b">
         <v>0</v>
@@ -7179,19 +7164,19 @@
         <v>6</v>
       </c>
       <c r="C171" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D171" t="s">
         <v>173</v>
       </c>
       <c r="E171" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F171" t="s">
         <v>389</v>
       </c>
       <c r="G171" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H171" t="b">
         <v>1</v>
@@ -7205,19 +7190,19 @@
         <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D172" t="s">
         <v>174</v>
       </c>
       <c r="E172" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F172" t="s">
         <v>407</v>
       </c>
       <c r="G172" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H172" t="b">
         <v>1</v>
@@ -7231,19 +7216,19 @@
         <v>6</v>
       </c>
       <c r="C173" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D173" t="s">
         <v>175</v>
       </c>
       <c r="E173" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F173" t="s">
         <v>390</v>
       </c>
       <c r="G173" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H173" t="b">
         <v>1</v>
@@ -7257,19 +7242,19 @@
         <v>6</v>
       </c>
       <c r="C174" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D174" t="s">
         <v>176</v>
       </c>
       <c r="E174" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F174" t="s">
         <v>408</v>
       </c>
       <c r="G174" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H174" t="b">
         <v>1</v>
@@ -7283,19 +7268,19 @@
         <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D175" t="s">
         <v>177</v>
       </c>
       <c r="E175" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F175" t="s">
         <v>391</v>
       </c>
       <c r="G175" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H175" t="b">
         <v>0</v>
@@ -7309,19 +7294,19 @@
         <v>6</v>
       </c>
       <c r="C176" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D176" t="s">
         <v>178</v>
       </c>
       <c r="E176" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F176" t="s">
         <v>409</v>
       </c>
       <c r="G176" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H176" t="b">
         <v>0</v>
@@ -7335,19 +7320,19 @@
         <v>6</v>
       </c>
       <c r="C177" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D177" t="s">
         <v>179</v>
       </c>
       <c r="E177" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F177" t="s">
         <v>392</v>
       </c>
       <c r="G177" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H177" t="b">
         <v>1</v>
@@ -7361,19 +7346,19 @@
         <v>6</v>
       </c>
       <c r="C178" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D178" t="s">
         <v>180</v>
       </c>
       <c r="E178" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F178" t="s">
         <v>393</v>
       </c>
       <c r="G178" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H178" t="b">
         <v>0</v>
@@ -7387,19 +7372,19 @@
         <v>6</v>
       </c>
       <c r="C179" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D179" t="s">
         <v>181</v>
       </c>
       <c r="E179" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F179" t="s">
         <v>410</v>
       </c>
       <c r="G179" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H179" t="b">
         <v>0</v>
@@ -7413,19 +7398,19 @@
         <v>6</v>
       </c>
       <c r="C180" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D180" t="s">
         <v>182</v>
       </c>
       <c r="E180" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F180" t="s">
         <v>411</v>
       </c>
       <c r="G180" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H180" t="b">
         <v>1</v>
@@ -7439,19 +7424,19 @@
         <v>6</v>
       </c>
       <c r="C181" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D181" t="s">
         <v>183</v>
       </c>
       <c r="E181" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F181" t="s">
         <v>394</v>
       </c>
       <c r="G181" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H181" t="b">
         <v>1</v>
@@ -7465,19 +7450,19 @@
         <v>6</v>
       </c>
       <c r="C182" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D182" t="s">
         <v>184</v>
       </c>
       <c r="E182" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F182" t="s">
         <v>395</v>
       </c>
       <c r="G182" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H182" t="b">
         <v>0</v>
@@ -7491,19 +7476,19 @@
         <v>6</v>
       </c>
       <c r="C183" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D183" t="s">
         <v>185</v>
       </c>
       <c r="E183" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F183" t="s">
         <v>396</v>
       </c>
       <c r="G183" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H183" t="b">
         <v>0</v>
@@ -7517,19 +7502,19 @@
         <v>6</v>
       </c>
       <c r="C184" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D184" t="s">
         <v>75</v>
       </c>
       <c r="E184" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F184" t="s">
         <v>305</v>
       </c>
       <c r="G184" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H184" t="b">
         <v>0</v>
@@ -7543,19 +7528,19 @@
         <v>6</v>
       </c>
       <c r="C185" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D185" t="s">
         <v>186</v>
       </c>
       <c r="E185" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F185" t="s">
         <v>412</v>
       </c>
       <c r="G185" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H185" t="b">
         <v>0</v>
@@ -7569,19 +7554,19 @@
         <v>6</v>
       </c>
       <c r="C186" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D186" t="s">
         <v>187</v>
       </c>
       <c r="E186" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F186" t="s">
         <v>413</v>
       </c>
       <c r="G186" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H186" t="b">
         <v>0</v>
@@ -7595,19 +7580,19 @@
         <v>6</v>
       </c>
       <c r="C187" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D187" t="s">
         <v>188</v>
       </c>
       <c r="E187" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F187" t="s">
         <v>414</v>
       </c>
       <c r="G187" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H187" t="b">
         <v>0</v>
@@ -7621,19 +7606,19 @@
         <v>6</v>
       </c>
       <c r="C188" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D188" t="s">
         <v>189</v>
       </c>
       <c r="E188" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F188" t="s">
         <v>415</v>
       </c>
       <c r="G188" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H188" t="b">
         <v>0</v>
@@ -7647,19 +7632,19 @@
         <v>6</v>
       </c>
       <c r="C189" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D189" t="s">
         <v>190</v>
       </c>
       <c r="E189" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F189" t="s">
         <v>416</v>
       </c>
       <c r="G189" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H189" t="b">
         <v>0</v>
@@ -7673,19 +7658,19 @@
         <v>6</v>
       </c>
       <c r="C190" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D190" t="s">
         <v>191</v>
       </c>
       <c r="E190" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F190" t="s">
         <v>417</v>
       </c>
       <c r="G190" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H190" t="b">
         <v>0</v>
@@ -7699,19 +7684,19 @@
         <v>6</v>
       </c>
       <c r="C191" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D191" t="s">
         <v>192</v>
       </c>
       <c r="E191" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F191" t="s">
         <v>418</v>
       </c>
       <c r="G191" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H191" t="b">
         <v>0</v>
@@ -7725,19 +7710,19 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D192" t="s">
         <v>193</v>
       </c>
       <c r="E192" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F192" t="s">
         <v>419</v>
       </c>
       <c r="G192" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H192" t="b">
         <v>0</v>
@@ -7751,19 +7736,19 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D193" t="s">
         <v>194</v>
       </c>
       <c r="E193" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F193" t="s">
         <v>427</v>
       </c>
       <c r="G193" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H193" t="b">
         <v>1</v>
@@ -7777,19 +7762,19 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D194" t="s">
         <v>195</v>
       </c>
       <c r="E194" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F194" t="s">
         <v>419</v>
       </c>
       <c r="G194" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H194" t="b">
         <v>0</v>
@@ -7803,19 +7788,19 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D195" t="s">
         <v>196</v>
       </c>
       <c r="E195" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F195" t="s">
         <v>420</v>
       </c>
       <c r="G195" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H195" t="b">
         <v>1</v>
@@ -7829,19 +7814,19 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D196" t="s">
         <v>200</v>
       </c>
       <c r="E196" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F196" t="s">
         <v>421</v>
       </c>
       <c r="G196" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H196" t="b">
         <v>1</v>
@@ -7855,19 +7840,19 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D197" t="s">
         <v>197</v>
       </c>
       <c r="E197" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F197" t="s">
         <v>428</v>
       </c>
       <c r="G197" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H197" t="b">
         <v>1</v>
@@ -7881,19 +7866,19 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D198" t="s">
         <v>201</v>
       </c>
       <c r="E198" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F198" t="s">
         <v>422</v>
       </c>
       <c r="G198" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H198" t="b">
         <v>1</v>
@@ -7907,19 +7892,19 @@
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D199" t="s">
         <v>202</v>
       </c>
       <c r="E199" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F199" t="s">
         <v>423</v>
       </c>
       <c r="G199" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H199" t="b">
         <v>1</v>
@@ -7933,19 +7918,19 @@
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D200" t="s">
         <v>203</v>
       </c>
       <c r="E200" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F200" t="s">
         <v>424</v>
       </c>
       <c r="G200" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H200" t="b">
         <v>1</v>
@@ -7959,19 +7944,19 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D201" t="s">
         <v>431</v>
       </c>
       <c r="E201" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F201" t="s">
         <v>429</v>
       </c>
       <c r="G201" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H201" t="b">
         <v>0</v>
@@ -7985,19 +7970,19 @@
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D202" t="s">
         <v>198</v>
       </c>
       <c r="E202" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F202" t="s">
         <v>425</v>
       </c>
       <c r="G202" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H202" t="b">
         <v>0</v>
@@ -8011,19 +7996,19 @@
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D203" t="s">
         <v>432</v>
       </c>
       <c r="E203" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F203" t="s">
         <v>430</v>
       </c>
       <c r="G203" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H203" t="b">
         <v>0</v>
@@ -8037,19 +8022,19 @@
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D204" t="s">
         <v>199</v>
       </c>
       <c r="E204" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F204" t="s">
         <v>426</v>
       </c>
       <c r="G204" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H204" t="b">
         <v>0</v>
@@ -8063,19 +8048,19 @@
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D205" t="s">
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F205" t="s">
         <v>433</v>
       </c>
       <c r="G205" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H205" t="b">
         <v>1</v>
@@ -8089,19 +8074,19 @@
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D206" t="s">
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F206" t="s">
         <v>457</v>
       </c>
       <c r="G206" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H206" t="b">
         <v>1</v>
@@ -8115,19 +8100,19 @@
         <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D207" t="s">
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F207" t="s">
         <v>434</v>
       </c>
       <c r="G207" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H207" t="b">
         <v>1</v>
@@ -8141,19 +8126,19 @@
         <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D208" t="s">
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F208" t="s">
         <v>458</v>
       </c>
       <c r="G208" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H208" t="b">
         <v>1</v>
@@ -8167,19 +8152,19 @@
         <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D209" t="s">
         <v>175</v>
       </c>
       <c r="E209" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F209" t="s">
         <v>390</v>
       </c>
       <c r="G209" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H209" t="b">
         <v>1</v>
@@ -8193,19 +8178,19 @@
         <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D210" t="s">
         <v>41</v>
       </c>
       <c r="E210" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F210" t="s">
         <v>435</v>
       </c>
       <c r="G210" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H210" t="b">
         <v>1</v>
@@ -8219,19 +8204,19 @@
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D211" t="s">
         <v>208</v>
       </c>
       <c r="E211" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F211" t="s">
         <v>436</v>
       </c>
       <c r="G211" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H211" t="b">
         <v>1</v>
@@ -8245,19 +8230,19 @@
         <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D212" t="s">
         <v>216</v>
       </c>
       <c r="E212" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F212" t="s">
         <v>437</v>
       </c>
       <c r="G212" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H212" t="b">
         <v>1</v>
@@ -8271,19 +8256,19 @@
         <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D213" t="s">
         <v>215</v>
       </c>
       <c r="E213" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F213" t="s">
         <v>459</v>
       </c>
       <c r="G213" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H213" t="b">
         <v>1</v>
@@ -8297,19 +8282,19 @@
         <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D214" t="s">
         <v>193</v>
       </c>
       <c r="E214" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F214" t="s">
         <v>419</v>
       </c>
       <c r="G214" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H214" t="b">
         <v>0</v>
@@ -8323,19 +8308,19 @@
         <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D215" t="s">
         <v>209</v>
       </c>
       <c r="E215" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F215" t="s">
         <v>438</v>
       </c>
       <c r="G215" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H215" t="b">
         <v>1</v>
@@ -8349,19 +8334,19 @@
         <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D216" t="s">
         <v>210</v>
       </c>
       <c r="E216" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F216" t="s">
         <v>439</v>
       </c>
       <c r="G216" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H216" t="b">
         <v>1</v>
@@ -8375,19 +8360,19 @@
         <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D217" t="s">
         <v>211</v>
       </c>
       <c r="E217" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F217" t="s">
         <v>440</v>
       </c>
       <c r="G217" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H217" t="b">
         <v>1</v>
@@ -8401,19 +8386,19 @@
         <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D218" t="s">
         <v>212</v>
       </c>
       <c r="E218" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F218" t="s">
         <v>441</v>
       </c>
       <c r="G218" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H218" t="b">
         <v>1</v>
@@ -8427,19 +8412,19 @@
         <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D219" t="s">
         <v>213</v>
       </c>
       <c r="E219" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F219" t="s">
         <v>442</v>
       </c>
       <c r="G219" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H219" t="b">
         <v>1</v>
@@ -8453,19 +8438,19 @@
         <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D220" t="s">
         <v>214</v>
       </c>
       <c r="E220" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F220" t="s">
         <v>443</v>
       </c>
       <c r="G220" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H220" t="b">
         <v>1</v>
@@ -8479,19 +8464,19 @@
         <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D221" t="s">
         <v>224</v>
       </c>
       <c r="E221" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F221" t="s">
         <v>460</v>
       </c>
       <c r="G221" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H221" t="b">
         <v>1</v>
@@ -8505,19 +8490,19 @@
         <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D222" t="s">
         <v>217</v>
       </c>
       <c r="E222" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F222" t="s">
         <v>444</v>
       </c>
       <c r="G222" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H222" t="b">
         <v>0</v>
@@ -8531,19 +8516,19 @@
         <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D223" t="s">
         <v>218</v>
       </c>
       <c r="E223" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F223" t="s">
         <v>445</v>
       </c>
       <c r="G223" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H223" t="b">
         <v>0</v>
@@ -8557,19 +8542,19 @@
         <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D224" t="s">
         <v>219</v>
       </c>
       <c r="E224" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F224" t="s">
         <v>461</v>
       </c>
       <c r="G224" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H224" t="b">
         <v>0</v>
@@ -8583,19 +8568,19 @@
         <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D225" t="s">
         <v>220</v>
       </c>
       <c r="E225" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F225" t="s">
         <v>462</v>
       </c>
       <c r="G225" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H225" t="b">
         <v>0</v>
@@ -8609,19 +8594,19 @@
         <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D226" t="s">
         <v>221</v>
       </c>
       <c r="E226" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F226" t="s">
         <v>446</v>
       </c>
       <c r="G226" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H226" t="b">
         <v>0</v>
@@ -8635,19 +8620,19 @@
         <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D227" t="s">
         <v>222</v>
       </c>
       <c r="E227" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F227" t="s">
         <v>447</v>
       </c>
       <c r="G227" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H227" t="b">
         <v>1</v>
@@ -8661,19 +8646,19 @@
         <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D228" t="s">
         <v>223</v>
       </c>
       <c r="E228" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F228" t="s">
         <v>448</v>
       </c>
       <c r="G228" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H228" t="b">
         <v>0</v>
@@ -8687,19 +8672,19 @@
         <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D229" t="s">
         <v>225</v>
       </c>
       <c r="E229" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F229" t="s">
         <v>449</v>
       </c>
       <c r="G229" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H229" t="b">
         <v>1</v>
@@ -8713,19 +8698,19 @@
         <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D230" t="s">
         <v>226</v>
       </c>
       <c r="E230" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F230" t="s">
         <v>450</v>
       </c>
       <c r="G230" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H230" t="b">
         <v>1</v>
@@ -8739,19 +8724,19 @@
         <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D231" t="s">
         <v>227</v>
       </c>
       <c r="E231" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F231" t="s">
         <v>451</v>
       </c>
       <c r="G231" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H231" t="b">
         <v>1</v>
@@ -8765,19 +8750,19 @@
         <v>9</v>
       </c>
       <c r="C232" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D232" t="s">
         <v>228</v>
       </c>
       <c r="E232" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F232" t="s">
         <v>463</v>
       </c>
       <c r="G232" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H232" t="b">
         <v>0</v>
@@ -8791,19 +8776,19 @@
         <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D233" t="s">
         <v>229</v>
       </c>
       <c r="E233" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F233" t="s">
         <v>464</v>
       </c>
       <c r="G233" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H233" t="b">
         <v>0</v>
@@ -8817,19 +8802,19 @@
         <v>9</v>
       </c>
       <c r="C234" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D234" t="s">
         <v>230</v>
       </c>
       <c r="E234" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F234" t="s">
         <v>452</v>
       </c>
       <c r="G234" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H234" t="b">
         <v>0</v>
@@ -8843,19 +8828,19 @@
         <v>9</v>
       </c>
       <c r="C235" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D235" t="s">
         <v>231</v>
       </c>
       <c r="E235" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F235" t="s">
         <v>465</v>
       </c>
       <c r="G235" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H235" t="b">
         <v>0</v>
@@ -8869,19 +8854,19 @@
         <v>9</v>
       </c>
       <c r="C236" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D236" t="s">
         <v>232</v>
       </c>
       <c r="E236" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F236" t="s">
         <v>466</v>
       </c>
       <c r="G236" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H236" t="b">
         <v>0</v>
@@ -8895,19 +8880,19 @@
         <v>9</v>
       </c>
       <c r="C237" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D237" t="s">
         <v>233</v>
       </c>
       <c r="E237" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F237" t="s">
         <v>467</v>
       </c>
       <c r="G237" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H237" t="b">
         <v>0</v>
@@ -8921,19 +8906,19 @@
         <v>9</v>
       </c>
       <c r="C238" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D238" t="s">
         <v>234</v>
       </c>
       <c r="E238" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F238" t="s">
         <v>468</v>
       </c>
       <c r="G238" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H238" t="b">
         <v>0</v>
@@ -8947,19 +8932,19 @@
         <v>9</v>
       </c>
       <c r="C239" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D239" t="s">
         <v>235</v>
       </c>
       <c r="E239" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F239" t="s">
         <v>469</v>
       </c>
       <c r="G239" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H239" t="b">
         <v>0</v>
@@ -8973,19 +8958,19 @@
         <v>9</v>
       </c>
       <c r="C240" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D240" t="s">
         <v>236</v>
       </c>
       <c r="E240" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F240" t="s">
         <v>470</v>
       </c>
       <c r="G240" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H240" t="b">
         <v>0</v>
@@ -8999,19 +8984,19 @@
         <v>9</v>
       </c>
       <c r="C241" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D241" t="s">
         <v>237</v>
       </c>
       <c r="E241" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F241" t="s">
         <v>471</v>
       </c>
       <c r="G241" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H241" t="b">
         <v>0</v>
@@ -9025,19 +9010,19 @@
         <v>9</v>
       </c>
       <c r="C242" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D242" t="s">
         <v>238</v>
       </c>
       <c r="E242" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F242" t="s">
         <v>472</v>
       </c>
       <c r="G242" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H242" t="b">
         <v>0</v>
@@ -9051,19 +9036,19 @@
         <v>9</v>
       </c>
       <c r="C243" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D243" t="s">
         <v>195</v>
       </c>
       <c r="E243" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F243" t="s">
         <v>419</v>
       </c>
       <c r="G243" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H243" t="b">
         <v>0</v>
@@ -9077,19 +9062,19 @@
         <v>9</v>
       </c>
       <c r="C244" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D244" t="s">
         <v>239</v>
       </c>
       <c r="E244" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F244" t="s">
         <v>453</v>
       </c>
       <c r="G244" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H244" t="b">
         <v>0</v>
@@ -9103,19 +9088,19 @@
         <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D245" t="s">
         <v>242</v>
       </c>
       <c r="E245" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F245" t="s">
         <v>473</v>
       </c>
       <c r="G245" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H245" t="b">
         <v>0</v>
@@ -9129,19 +9114,19 @@
         <v>9</v>
       </c>
       <c r="C246" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D246" t="s">
         <v>243</v>
       </c>
       <c r="E246" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F246" t="s">
         <v>454</v>
       </c>
       <c r="G246" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H246" t="b">
         <v>0</v>
@@ -9155,19 +9140,19 @@
         <v>9</v>
       </c>
       <c r="C247" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D247" t="s">
         <v>240</v>
       </c>
       <c r="E247" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F247" t="s">
         <v>455</v>
       </c>
       <c r="G247" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H247" t="b">
         <v>1</v>
@@ -9181,19 +9166,19 @@
         <v>9</v>
       </c>
       <c r="C248" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D248" t="s">
         <v>241</v>
       </c>
       <c r="E248" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F248" t="s">
         <v>456</v>
       </c>
       <c r="G248" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H248" t="b">
         <v>1</v>
@@ -9208,19 +9193,19 @@
         <v>10</v>
       </c>
       <c r="C250" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D250" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E250" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F250" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G250" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H250" t="b">
         <v>0</v>
@@ -9234,19 +9219,19 @@
         <v>10</v>
       </c>
       <c r="C251" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D251" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E251" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F251" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G251" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H251" t="b">
         <v>0</v>
@@ -9260,19 +9245,19 @@
         <v>10</v>
       </c>
       <c r="C252" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D252" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E252" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F252" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G252" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H252" t="b">
         <v>0</v>
@@ -9286,19 +9271,19 @@
         <v>10</v>
       </c>
       <c r="C253" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D253" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E253" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F253" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G253" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H253" t="b">
         <v>0</v>
@@ -9312,19 +9297,19 @@
         <v>10</v>
       </c>
       <c r="C254" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D254" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E254" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F254" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G254" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H254" t="b">
         <v>0</v>
@@ -9338,19 +9323,19 @@
         <v>10</v>
       </c>
       <c r="C255" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D255" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E255" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F255" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G255" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H255" t="b">
         <v>0</v>
@@ -9364,19 +9349,19 @@
         <v>10</v>
       </c>
       <c r="C256" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D256" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E256" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F256" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G256" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H256" t="b">
         <v>0</v>
@@ -9390,19 +9375,19 @@
         <v>10</v>
       </c>
       <c r="C257" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D257" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E257" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F257" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G257" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H257" t="b">
         <v>0</v>
@@ -9416,19 +9401,19 @@
         <v>10</v>
       </c>
       <c r="C258" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D258" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E258" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F258" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G258" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H258" t="b">
         <v>0</v>
@@ -9442,19 +9427,19 @@
         <v>10</v>
       </c>
       <c r="C259" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D259" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E259" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F259" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="G259" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H259" t="b">
         <v>0</v>
@@ -9468,19 +9453,19 @@
         <v>10</v>
       </c>
       <c r="C260" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D260" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E260" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F260" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G260" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H260" t="b">
         <v>0</v>
@@ -9494,19 +9479,19 @@
         <v>10</v>
       </c>
       <c r="C261" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D261" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E261" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F261" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="G261" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H261" t="b">
         <v>0</v>
@@ -9520,19 +9505,19 @@
         <v>10</v>
       </c>
       <c r="C262" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D262" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E262" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F262" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="G262" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H262" t="b">
         <v>0</v>
@@ -9546,19 +9531,19 @@
         <v>10</v>
       </c>
       <c r="C263" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D263" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E263" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F263" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G263" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H263" t="b">
         <v>0</v>
@@ -9572,19 +9557,19 @@
         <v>10</v>
       </c>
       <c r="C264" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D264" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E264" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F264" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G264" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H264" t="b">
         <v>0</v>
@@ -9598,19 +9583,19 @@
         <v>10</v>
       </c>
       <c r="C265" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D265" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E265" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F265" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="G265" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H265" t="b">
         <v>0</v>
@@ -9624,19 +9609,19 @@
         <v>10</v>
       </c>
       <c r="C266" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D266" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E266" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F266" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G266" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H266" t="b">
         <v>0</v>
@@ -9650,19 +9635,19 @@
         <v>10</v>
       </c>
       <c r="C267" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D267" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E267" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F267" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G267" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H267" t="b">
         <v>0</v>
@@ -9676,19 +9661,19 @@
         <v>10</v>
       </c>
       <c r="C268" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D268" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E268" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F268" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="G268" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H268" t="b">
         <v>0</v>
@@ -9702,19 +9687,19 @@
         <v>10</v>
       </c>
       <c r="C269" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D269" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E269" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F269" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="G269" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H269" t="b">
         <v>0</v>
@@ -9728,19 +9713,19 @@
         <v>10</v>
       </c>
       <c r="C270" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D270" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E270" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F270" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G270" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H270" t="b">
         <v>0</v>
@@ -9754,19 +9739,19 @@
         <v>10</v>
       </c>
       <c r="C271" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D271" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E271" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F271" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="G271" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H271" t="b">
         <v>0</v>
@@ -9780,19 +9765,19 @@
         <v>10</v>
       </c>
       <c r="C272" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D272" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E272" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F272" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="G272" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H272" t="b">
         <v>0</v>
@@ -9806,19 +9791,19 @@
         <v>10</v>
       </c>
       <c r="C273" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D273" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E273" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F273" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="G273" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H273" t="b">
         <v>0</v>
@@ -9832,19 +9817,19 @@
         <v>10</v>
       </c>
       <c r="C274" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D274" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E274" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F274" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="G274" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H274" t="b">
         <v>0</v>
@@ -9858,19 +9843,19 @@
         <v>10</v>
       </c>
       <c r="C275" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D275" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E275" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F275" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G275" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H275" t="b">
         <v>0</v>
@@ -9884,19 +9869,19 @@
         <v>10</v>
       </c>
       <c r="C276" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D276" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E276" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F276" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G276" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H276" t="b">
         <v>0</v>
@@ -9910,19 +9895,19 @@
         <v>10</v>
       </c>
       <c r="C277" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D277" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E277" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F277" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="G277" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H277" t="b">
         <v>0</v>
@@ -9936,19 +9921,19 @@
         <v>10</v>
       </c>
       <c r="C278" t="s">
+        <v>775</v>
+      </c>
+      <c r="D278" t="s">
         <v>780</v>
       </c>
-      <c r="D278" t="s">
-        <v>785</v>
-      </c>
       <c r="E278" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F278" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G278" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H278" t="b">
         <v>0</v>
@@ -9962,19 +9947,19 @@
         <v>10</v>
       </c>
       <c r="C279" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D279" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E279" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F279" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G279" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H279" t="b">
         <v>0</v>
@@ -9988,19 +9973,19 @@
         <v>10</v>
       </c>
       <c r="C280" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D280" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E280" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F280" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G280" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H280" t="b">
         <v>0</v>
@@ -10014,19 +9999,19 @@
         <v>10</v>
       </c>
       <c r="C281" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D281" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E281" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F281" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G281" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H281" t="b">
         <v>0</v>
@@ -10040,19 +10025,19 @@
         <v>10</v>
       </c>
       <c r="C282" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D282" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E282" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F282" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G282" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H282" t="b">
         <v>0</v>
@@ -10066,19 +10051,19 @@
         <v>10</v>
       </c>
       <c r="C283" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D283" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E283" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F283" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G283" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H283" t="b">
         <v>0</v>
@@ -10092,19 +10077,19 @@
         <v>10</v>
       </c>
       <c r="C284" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D284" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E284" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F284" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G284" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H284" t="b">
         <v>0</v>
@@ -10118,19 +10103,19 @@
         <v>10</v>
       </c>
       <c r="C285" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D285" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E285" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F285" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G285" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H285" t="b">
         <v>0</v>
@@ -10144,19 +10129,19 @@
         <v>10</v>
       </c>
       <c r="C286" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D286" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E286" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F286" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="G286" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H286" t="b">
         <v>0</v>
@@ -10170,19 +10155,19 @@
         <v>10</v>
       </c>
       <c r="C287" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D287" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E287" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F287" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G287" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H287" t="b">
         <v>0</v>
@@ -10196,19 +10181,19 @@
         <v>10</v>
       </c>
       <c r="C288" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D288" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E288" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F288" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G288" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H288" t="b">
         <v>0</v>
@@ -10222,19 +10207,19 @@
         <v>10</v>
       </c>
       <c r="C289" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D289" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E289" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F289" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G289" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H289" t="b">
         <v>0</v>
@@ -10248,19 +10233,19 @@
         <v>10</v>
       </c>
       <c r="C290" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D290" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="E290" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F290" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G290" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H290" t="b">
         <v>0</v>
@@ -10274,19 +10259,19 @@
         <v>10</v>
       </c>
       <c r="C291" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D291" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="E291" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F291" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G291" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H291" t="b">
         <v>0</v>
@@ -10300,19 +10285,19 @@
         <v>10</v>
       </c>
       <c r="C292" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D292" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E292" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F292" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="G292" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H292" t="b">
         <v>0</v>
@@ -10326,19 +10311,19 @@
         <v>11</v>
       </c>
       <c r="C293" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D293" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E293" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F293" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G293" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H293" t="b">
         <v>0</v>
@@ -10352,19 +10337,19 @@
         <v>11</v>
       </c>
       <c r="C294" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D294" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="E294" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F294" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="G294" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H294" t="b">
         <v>0</v>
@@ -10378,19 +10363,19 @@
         <v>11</v>
       </c>
       <c r="C295" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D295" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="E295" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F295" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="G295" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H295" t="b">
         <v>0</v>
@@ -10404,19 +10389,19 @@
         <v>11</v>
       </c>
       <c r="C296" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D296" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="E296" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F296" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G296" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H296" t="b">
         <v>0</v>
@@ -10430,19 +10415,19 @@
         <v>11</v>
       </c>
       <c r="C297" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D297" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="E297" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F297" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="G297" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H297" t="b">
         <v>0</v>
@@ -10456,19 +10441,19 @@
         <v>11</v>
       </c>
       <c r="C298" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D298" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="E298" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F298" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="G298" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H298" t="b">
         <v>0</v>
@@ -10482,19 +10467,19 @@
         <v>11</v>
       </c>
       <c r="C299" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D299" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="E299" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F299" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="G299" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H299" t="b">
         <v>0</v>
@@ -10508,19 +10493,19 @@
         <v>11</v>
       </c>
       <c r="C300" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D300" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="E300" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F300" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G300" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H300" t="b">
         <v>0</v>
@@ -10534,19 +10519,19 @@
         <v>11</v>
       </c>
       <c r="C301" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D301" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="E301" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F301" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G301" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H301" t="b">
         <v>0</v>
@@ -10560,19 +10545,19 @@
         <v>11</v>
       </c>
       <c r="C302" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D302" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E302" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F302" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="G302" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H302" t="b">
         <v>0</v>
@@ -10586,19 +10571,19 @@
         <v>11</v>
       </c>
       <c r="C303" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D303" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="E303" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F303" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="G303" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H303" t="b">
         <v>0</v>
@@ -10612,19 +10597,19 @@
         <v>11</v>
       </c>
       <c r="C304" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D304" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="E304" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F304" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="G304" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H304" t="b">
         <v>0</v>
@@ -10638,19 +10623,19 @@
         <v>11</v>
       </c>
       <c r="C305" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D305" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="E305" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F305" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="G305" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H305" t="b">
         <v>0</v>
@@ -10664,19 +10649,19 @@
         <v>11</v>
       </c>
       <c r="C306" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D306" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="E306" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F306" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G306" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H306" t="b">
         <v>0</v>
@@ -10690,19 +10675,19 @@
         <v>11</v>
       </c>
       <c r="C307" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D307" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="E307" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G307" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H307" t="b">
         <v>0</v>
@@ -10716,19 +10701,19 @@
         <v>11</v>
       </c>
       <c r="C308" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D308" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E308" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F308" t="s">
         <v>398</v>
       </c>
       <c r="G308" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H308" t="b">
         <v>0</v>
@@ -10742,19 +10727,19 @@
         <v>11</v>
       </c>
       <c r="C309" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D309" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="E309" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F309" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G309" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H309" t="b">
         <v>0</v>
@@ -10768,19 +10753,19 @@
         <v>11</v>
       </c>
       <c r="C310" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D310" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E310" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F310" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G310" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H310" t="b">
         <v>0</v>
@@ -10794,19 +10779,19 @@
         <v>11</v>
       </c>
       <c r="C311" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D311" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="E311" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F311" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G311" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H311" t="b">
         <v>0</v>
@@ -10820,19 +10805,19 @@
         <v>11</v>
       </c>
       <c r="C312" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D312" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="E312" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F312" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G312" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H312" t="b">
         <v>0</v>
@@ -10846,19 +10831,19 @@
         <v>11</v>
       </c>
       <c r="C313" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D313" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E313" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F313" t="s">
         <v>267</v>
       </c>
       <c r="G313" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H313" t="b">
         <v>0</v>
@@ -10872,19 +10857,19 @@
         <v>11</v>
       </c>
       <c r="C314" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D314" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E314" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F314" t="s">
         <v>333</v>
       </c>
       <c r="G314" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H314" t="b">
         <v>0</v>
@@ -10898,19 +10883,19 @@
         <v>11</v>
       </c>
       <c r="C315" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D315" t="s">
+        <v>611</v>
+      </c>
+      <c r="E315" t="s">
+        <v>776</v>
+      </c>
+      <c r="F315" t="s">
         <v>616</v>
       </c>
-      <c r="E315" t="s">
-        <v>781</v>
-      </c>
-      <c r="F315" t="s">
-        <v>621</v>
-      </c>
       <c r="G315" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H315" t="b">
         <v>0</v>
@@ -10924,19 +10909,19 @@
         <v>11</v>
       </c>
       <c r="C316" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D316" t="s">
+        <v>612</v>
+      </c>
+      <c r="E316" t="s">
+        <v>776</v>
+      </c>
+      <c r="F316" t="s">
         <v>617</v>
       </c>
-      <c r="E316" t="s">
-        <v>781</v>
-      </c>
-      <c r="F316" t="s">
-        <v>622</v>
-      </c>
       <c r="G316" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H316" t="b">
         <v>0</v>
@@ -10950,19 +10935,19 @@
         <v>11</v>
       </c>
       <c r="C317" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D317" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E317" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F317" t="s">
         <v>336</v>
       </c>
       <c r="G317" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H317" t="b">
         <v>0</v>
@@ -10976,19 +10961,19 @@
         <v>11</v>
       </c>
       <c r="C318" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D318" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E318" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F318" t="s">
         <v>332</v>
       </c>
       <c r="G318" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H318" t="b">
         <v>0</v>
@@ -11002,19 +10987,19 @@
         <v>11</v>
       </c>
       <c r="C319" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D319" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E319" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F319" t="s">
         <v>291</v>
       </c>
       <c r="G319" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H319" t="b">
         <v>0</v>
@@ -11028,19 +11013,19 @@
         <v>11</v>
       </c>
       <c r="C320" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D320" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E320" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F320" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="G320" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H320" t="b">
         <v>0</v>
@@ -11054,19 +11039,19 @@
         <v>11</v>
       </c>
       <c r="C321" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D321" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="E321" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F321" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G321" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H321" t="b">
         <v>0</v>
@@ -11080,19 +11065,19 @@
         <v>11</v>
       </c>
       <c r="C322" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D322" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E322" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F322" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="G322" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H322" t="b">
         <v>0</v>
@@ -11106,19 +11091,19 @@
         <v>11</v>
       </c>
       <c r="C323" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D323" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E323" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F323" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G323" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H323" t="b">
         <v>0</v>
@@ -11132,19 +11117,19 @@
         <v>11</v>
       </c>
       <c r="C324" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D324" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E324" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F324" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G324" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H324" t="b">
         <v>0</v>
@@ -11158,19 +11143,19 @@
         <v>11</v>
       </c>
       <c r="C325" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D325" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="E325" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F325" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G325" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H325" t="b">
         <v>0</v>
@@ -11184,19 +11169,19 @@
         <v>11</v>
       </c>
       <c r="C326" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D326" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E326" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F326" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G326" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H326" t="b">
         <v>0</v>
@@ -11210,19 +11195,19 @@
         <v>11</v>
       </c>
       <c r="C327" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D327" t="s">
+        <v>631</v>
+      </c>
+      <c r="E327" t="s">
+        <v>776</v>
+      </c>
+      <c r="F327" t="s">
         <v>636</v>
       </c>
-      <c r="E327" t="s">
-        <v>781</v>
-      </c>
-      <c r="F327" t="s">
-        <v>641</v>
-      </c>
       <c r="G327" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H327" t="b">
         <v>0</v>
@@ -11236,19 +11221,19 @@
         <v>11</v>
       </c>
       <c r="C328" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D328" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E328" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F328" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G328" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H328" t="b">
         <v>0</v>
@@ -11262,19 +11247,19 @@
         <v>11</v>
       </c>
       <c r="C329" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D329" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="E329" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F329" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="G329" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H329" t="b">
         <v>0</v>
@@ -11288,19 +11273,19 @@
         <v>11</v>
       </c>
       <c r="C330" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D330" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E330" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F330" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="G330" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H330" t="b">
         <v>0</v>
@@ -11314,19 +11299,19 @@
         <v>11</v>
       </c>
       <c r="C331" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D331" t="s">
         <v>131</v>
       </c>
       <c r="E331" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F331" t="s">
         <v>358</v>
       </c>
       <c r="G331" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H331" t="b">
         <v>0</v>
@@ -11340,19 +11325,19 @@
         <v>11</v>
       </c>
       <c r="C332" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D332" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E332" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F332" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G332" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H332" t="b">
         <v>0</v>
@@ -11366,19 +11351,19 @@
         <v>11</v>
       </c>
       <c r="C333" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D333" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E333" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F333" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="G333" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H333" t="b">
         <v>0</v>
@@ -11392,19 +11377,19 @@
         <v>11</v>
       </c>
       <c r="C334" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D334" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E334" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F334" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G334" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H334" t="b">
         <v>0</v>
@@ -11418,19 +11403,19 @@
         <v>11</v>
       </c>
       <c r="C335" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D335" t="s">
         <v>2</v>
       </c>
       <c r="E335" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F335" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G335" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H335" t="b">
         <v>0</v>
@@ -11444,19 +11429,19 @@
         <v>11</v>
       </c>
       <c r="C336" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D336" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="E336" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F336" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="G336" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H336" t="b">
         <v>0</v>
@@ -11470,19 +11455,19 @@
         <v>11</v>
       </c>
       <c r="C337" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D337" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E337" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F337" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G337" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H337" t="b">
         <v>0</v>
@@ -11496,19 +11481,19 @@
         <v>11</v>
       </c>
       <c r="C338" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D338" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E338" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F338" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="G338" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H338" t="b">
         <v>0</v>
@@ -11522,19 +11507,19 @@
         <v>11</v>
       </c>
       <c r="C339" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D339" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E339" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F339" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G339" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H339" t="b">
         <v>0</v>
@@ -11548,19 +11533,19 @@
         <v>11</v>
       </c>
       <c r="C340" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D340" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E340" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F340" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G340" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H340" t="b">
         <v>0</v>
@@ -11574,19 +11559,19 @@
         <v>11</v>
       </c>
       <c r="C341" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D341" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E341" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F341" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G341" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H341" t="b">
         <v>0</v>
@@ -11600,19 +11585,19 @@
         <v>11</v>
       </c>
       <c r="C342" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D342" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E342" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F342" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G342" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H342" t="b">
         <v>0</v>
@@ -11626,19 +11611,19 @@
         <v>12</v>
       </c>
       <c r="C343" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D343" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E343" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F343" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G343" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H343" t="b">
         <v>0</v>
@@ -11652,19 +11637,19 @@
         <v>12</v>
       </c>
       <c r="C344" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D344" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E344" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F344" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G344" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H344" t="b">
         <v>0</v>
@@ -11678,19 +11663,19 @@
         <v>12</v>
       </c>
       <c r="C345" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D345" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="E345" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F345" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="G345" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H345" t="b">
         <v>0</v>
@@ -11704,19 +11689,19 @@
         <v>12</v>
       </c>
       <c r="C346" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D346" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E346" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F346" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G346" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H346" t="b">
         <v>0</v>
@@ -11730,19 +11715,19 @@
         <v>12</v>
       </c>
       <c r="C347" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D347" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="E347" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F347" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="G347" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H347" t="b">
         <v>0</v>
@@ -11756,19 +11741,19 @@
         <v>12</v>
       </c>
       <c r="C348" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D348" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="E348" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F348" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G348" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H348" t="b">
         <v>0</v>
@@ -11782,19 +11767,19 @@
         <v>12</v>
       </c>
       <c r="C349" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D349" t="s">
+        <v>667</v>
+      </c>
+      <c r="E349" t="s">
+        <v>776</v>
+      </c>
+      <c r="F349" t="s">
         <v>672</v>
       </c>
-      <c r="E349" t="s">
-        <v>781</v>
-      </c>
-      <c r="F349" t="s">
-        <v>677</v>
-      </c>
       <c r="G349" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H349" t="b">
         <v>0</v>
@@ -11808,19 +11793,19 @@
         <v>12</v>
       </c>
       <c r="C350" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D350" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="E350" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F350" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G350" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H350" t="b">
         <v>0</v>
@@ -11834,19 +11819,19 @@
         <v>12</v>
       </c>
       <c r="C351" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D351" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E351" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F351" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G351" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H351" t="b">
         <v>0</v>
@@ -11860,19 +11845,19 @@
         <v>12</v>
       </c>
       <c r="C352" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D352" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="E352" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F352" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="G352" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H352" t="b">
         <v>0</v>
@@ -11886,19 +11871,19 @@
         <v>12</v>
       </c>
       <c r="C353" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D353" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="E353" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F353" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G353" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H353" t="b">
         <v>0</v>
@@ -11912,19 +11897,19 @@
         <v>12</v>
       </c>
       <c r="C354" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D354" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E354" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F354" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G354" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H354" t="b">
         <v>0</v>
@@ -11938,19 +11923,19 @@
         <v>12</v>
       </c>
       <c r="C355" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D355" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="E355" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F355" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="G355" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H355" t="b">
         <v>0</v>
@@ -11964,19 +11949,19 @@
         <v>12</v>
       </c>
       <c r="C356" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D356" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E356" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F356" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G356" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H356" t="b">
         <v>0</v>
@@ -11990,19 +11975,19 @@
         <v>12</v>
       </c>
       <c r="C357" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D357" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="E357" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F357" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="G357" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H357" t="b">
         <v>0</v>
@@ -12016,19 +12001,19 @@
         <v>12</v>
       </c>
       <c r="C358" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D358" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="E358" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F358" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="G358" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H358" t="b">
         <v>0</v>
@@ -12042,19 +12027,19 @@
         <v>12</v>
       </c>
       <c r="C359" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D359" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="E359" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F359" t="s">
         <v>463</v>
       </c>
       <c r="G359" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H359" t="b">
         <v>0</v>
@@ -12068,19 +12053,19 @@
         <v>12</v>
       </c>
       <c r="C360" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D360" t="s">
+        <v>691</v>
+      </c>
+      <c r="E360" t="s">
+        <v>776</v>
+      </c>
+      <c r="F360" t="s">
         <v>696</v>
       </c>
-      <c r="E360" t="s">
-        <v>781</v>
-      </c>
-      <c r="F360" t="s">
-        <v>701</v>
-      </c>
       <c r="G360" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H360" t="b">
         <v>0</v>
@@ -12094,19 +12079,19 @@
         <v>12</v>
       </c>
       <c r="C361" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D361" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="E361" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F361" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="G361" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H361" t="b">
         <v>0</v>
@@ -12120,19 +12105,19 @@
         <v>12</v>
       </c>
       <c r="C362" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D362" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="E362" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F362" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="G362" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H362" t="b">
         <v>0</v>
@@ -12146,19 +12131,19 @@
         <v>12</v>
       </c>
       <c r="C363" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D363" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="E363" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F363" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G363" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H363" t="b">
         <v>0</v>
@@ -12172,19 +12157,19 @@
         <v>12</v>
       </c>
       <c r="C364" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D364" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="E364" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F364" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="G364" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H364" t="b">
         <v>0</v>
@@ -12198,19 +12183,19 @@
         <v>12</v>
       </c>
       <c r="C365" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D365" t="s">
+        <v>701</v>
+      </c>
+      <c r="E365" t="s">
+        <v>776</v>
+      </c>
+      <c r="F365" t="s">
         <v>706</v>
       </c>
-      <c r="E365" t="s">
-        <v>781</v>
-      </c>
-      <c r="F365" t="s">
-        <v>711</v>
-      </c>
       <c r="G365" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H365" t="b">
         <v>0</v>
@@ -12224,19 +12209,19 @@
         <v>12</v>
       </c>
       <c r="C366" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D366" t="s">
+        <v>702</v>
+      </c>
+      <c r="E366" t="s">
+        <v>776</v>
+      </c>
+      <c r="F366" t="s">
         <v>707</v>
       </c>
-      <c r="E366" t="s">
-        <v>781</v>
-      </c>
-      <c r="F366" t="s">
-        <v>712</v>
-      </c>
       <c r="G366" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H366" t="b">
         <v>0</v>
@@ -12250,19 +12235,19 @@
         <v>12</v>
       </c>
       <c r="C367" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D367" t="s">
+        <v>703</v>
+      </c>
+      <c r="E367" t="s">
+        <v>776</v>
+      </c>
+      <c r="F367" t="s">
         <v>708</v>
       </c>
-      <c r="E367" t="s">
-        <v>781</v>
-      </c>
-      <c r="F367" t="s">
-        <v>713</v>
-      </c>
       <c r="G367" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H367" t="b">
         <v>0</v>
@@ -12276,19 +12261,19 @@
         <v>12</v>
       </c>
       <c r="C368" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D368" t="s">
+        <v>704</v>
+      </c>
+      <c r="E368" t="s">
+        <v>776</v>
+      </c>
+      <c r="F368" t="s">
         <v>709</v>
       </c>
-      <c r="E368" t="s">
-        <v>781</v>
-      </c>
-      <c r="F368" t="s">
-        <v>714</v>
-      </c>
       <c r="G368" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H368" t="b">
         <v>0</v>
@@ -12302,19 +12287,19 @@
         <v>12</v>
       </c>
       <c r="C369" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D369" t="s">
+        <v>705</v>
+      </c>
+      <c r="E369" t="s">
+        <v>776</v>
+      </c>
+      <c r="F369" t="s">
         <v>710</v>
       </c>
-      <c r="E369" t="s">
-        <v>781</v>
-      </c>
-      <c r="F369" t="s">
-        <v>715</v>
-      </c>
       <c r="G369" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H369" t="b">
         <v>0</v>
@@ -12328,19 +12313,19 @@
         <v>12</v>
       </c>
       <c r="C370" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D370" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="E370" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F370" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="G370" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H370" t="b">
         <v>0</v>
@@ -12354,19 +12339,19 @@
         <v>12</v>
       </c>
       <c r="C371" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D371" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="E371" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F371" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="G371" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H371" t="b">
         <v>0</v>
@@ -12380,19 +12365,19 @@
         <v>12</v>
       </c>
       <c r="C372" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D372" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="E372" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F372" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G372" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H372" t="b">
         <v>0</v>
@@ -12406,19 +12391,19 @@
         <v>12</v>
       </c>
       <c r="C373" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D373" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E373" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F373" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G373" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H373" t="b">
         <v>0</v>
@@ -12432,19 +12417,19 @@
         <v>12</v>
       </c>
       <c r="C374" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D374" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="E374" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F374" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G374" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H374" t="b">
         <v>0</v>
@@ -12458,19 +12443,19 @@
         <v>12</v>
       </c>
       <c r="C375" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D375" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="E375" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F375" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="G375" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H375" t="b">
         <v>0</v>
@@ -12484,19 +12469,19 @@
         <v>12</v>
       </c>
       <c r="C376" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D376" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="E376" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F376" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G376" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H376" t="b">
         <v>0</v>
@@ -12510,19 +12495,19 @@
         <v>12</v>
       </c>
       <c r="C377" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D377" t="s">
+        <v>701</v>
+      </c>
+      <c r="E377" t="s">
+        <v>776</v>
+      </c>
+      <c r="F377" t="s">
         <v>706</v>
       </c>
-      <c r="E377" t="s">
-        <v>781</v>
-      </c>
-      <c r="F377" t="s">
-        <v>711</v>
-      </c>
       <c r="G377" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H377" t="b">
         <v>0</v>
@@ -12536,19 +12521,19 @@
         <v>13</v>
       </c>
       <c r="C378" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D378" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="E378" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F378" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G378" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H378" t="b">
         <v>0</v>
@@ -12562,19 +12547,19 @@
         <v>13</v>
       </c>
       <c r="C379" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D379" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="E379" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F379" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="G379" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H379" t="b">
         <v>0</v>
@@ -12588,19 +12573,19 @@
         <v>13</v>
       </c>
       <c r="C380" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D380" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="E380" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F380" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="G380" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H380" t="b">
         <v>0</v>
@@ -12614,19 +12599,19 @@
         <v>13</v>
       </c>
       <c r="C381" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D381" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="E381" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F381" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="G381" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H381" t="b">
         <v>0</v>
@@ -12640,19 +12625,19 @@
         <v>13</v>
       </c>
       <c r="C382" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D382" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="E382" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F382" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="G382" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H382" t="b">
         <v>0</v>
@@ -12666,19 +12651,19 @@
         <v>13</v>
       </c>
       <c r="C383" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D383" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E383" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F383" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="G383" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H383" t="b">
         <v>0</v>
@@ -12692,19 +12677,19 @@
         <v>13</v>
       </c>
       <c r="C384" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D384" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="E384" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F384" t="s">
         <v>268</v>
       </c>
       <c r="G384" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H384" t="b">
         <v>0</v>
@@ -12718,19 +12703,19 @@
         <v>13</v>
       </c>
       <c r="C385" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D385" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="E385" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F385" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="G385" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H385" t="b">
         <v>0</v>
@@ -12744,19 +12729,19 @@
         <v>13</v>
       </c>
       <c r="C386" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D386" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="E386" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F386" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="G386" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H386" t="b">
         <v>0</v>
@@ -12770,19 +12755,19 @@
         <v>13</v>
       </c>
       <c r="C387" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D387" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="E387" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F387" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="G387" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H387" t="b">
         <v>0</v>
@@ -12796,19 +12781,19 @@
         <v>13</v>
       </c>
       <c r="C388" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D388" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="E388" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F388" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G388" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H388" t="b">
         <v>0</v>
@@ -12822,19 +12807,19 @@
         <v>13</v>
       </c>
       <c r="C389" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D389" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="E389" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F389" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G389" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H389" t="b">
         <v>0</v>
@@ -12848,19 +12833,19 @@
         <v>13</v>
       </c>
       <c r="C390" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D390" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="E390" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F390" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="G390" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H390" t="b">
         <v>0</v>
@@ -12874,19 +12859,19 @@
         <v>13</v>
       </c>
       <c r="C391" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D391" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="E391" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F391" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="G391" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H391" t="b">
         <v>0</v>
@@ -12900,19 +12885,19 @@
         <v>13</v>
       </c>
       <c r="C392" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D392" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="E392" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F392" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="G392" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H392" t="b">
         <v>0</v>
@@ -12926,19 +12911,19 @@
         <v>13</v>
       </c>
       <c r="C393" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D393" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="E393" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F393" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G393" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H393" t="b">
         <v>0</v>
@@ -12952,19 +12937,19 @@
         <v>13</v>
       </c>
       <c r="C394" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D394" t="s">
         <v>192</v>
       </c>
       <c r="E394" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F394" t="s">
         <v>418</v>
       </c>
       <c r="G394" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H394" t="b">
         <v>0</v>
@@ -12978,19 +12963,19 @@
         <v>13</v>
       </c>
       <c r="C395" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D395" t="s">
+        <v>755</v>
+      </c>
+      <c r="E395" t="s">
+        <v>776</v>
+      </c>
+      <c r="F395" t="s">
         <v>760</v>
       </c>
-      <c r="E395" t="s">
-        <v>781</v>
-      </c>
-      <c r="F395" t="s">
-        <v>765</v>
-      </c>
       <c r="G395" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H395" t="b">
         <v>0</v>
@@ -13004,19 +12989,19 @@
         <v>13</v>
       </c>
       <c r="C396" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D396" t="s">
+        <v>756</v>
+      </c>
+      <c r="E396" t="s">
+        <v>776</v>
+      </c>
+      <c r="F396" t="s">
         <v>761</v>
       </c>
-      <c r="E396" t="s">
-        <v>781</v>
-      </c>
-      <c r="F396" t="s">
-        <v>766</v>
-      </c>
       <c r="G396" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H396" t="b">
         <v>0</v>
@@ -13030,19 +13015,19 @@
         <v>13</v>
       </c>
       <c r="C397" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D397" t="s">
+        <v>757</v>
+      </c>
+      <c r="E397" t="s">
+        <v>776</v>
+      </c>
+      <c r="F397" t="s">
         <v>762</v>
       </c>
-      <c r="E397" t="s">
-        <v>781</v>
-      </c>
-      <c r="F397" t="s">
-        <v>767</v>
-      </c>
       <c r="G397" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H397" t="b">
         <v>0</v>
@@ -13056,19 +13041,19 @@
         <v>13</v>
       </c>
       <c r="C398" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D398" t="s">
+        <v>758</v>
+      </c>
+      <c r="E398" t="s">
+        <v>776</v>
+      </c>
+      <c r="F398" t="s">
         <v>763</v>
       </c>
-      <c r="E398" t="s">
-        <v>781</v>
-      </c>
-      <c r="F398" t="s">
-        <v>768</v>
-      </c>
       <c r="G398" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H398" t="b">
         <v>0</v>
@@ -13082,19 +13067,19 @@
         <v>13</v>
       </c>
       <c r="C399" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D399" t="s">
+        <v>759</v>
+      </c>
+      <c r="E399" t="s">
+        <v>776</v>
+      </c>
+      <c r="F399" t="s">
         <v>764</v>
       </c>
-      <c r="E399" t="s">
-        <v>781</v>
-      </c>
-      <c r="F399" t="s">
-        <v>769</v>
-      </c>
       <c r="G399" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H399" t="b">
         <v>0</v>
@@ -13108,19 +13093,19 @@
         <v>13</v>
       </c>
       <c r="C400" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D400" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="E400" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F400" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="G400" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H400" t="b">
         <v>0</v>
@@ -13134,19 +13119,19 @@
         <v>13</v>
       </c>
       <c r="C401" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D401" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E401" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F401" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="G401" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H401" t="b">
         <v>0</v>
@@ -13160,19 +13145,19 @@
         <v>13</v>
       </c>
       <c r="C402" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D402" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="E402" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F402" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="G402" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H402" t="b">
         <v>0</v>
@@ -13186,19 +13171,19 @@
         <v>13</v>
       </c>
       <c r="C403" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D403" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="E403" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F403" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="G403" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H403" t="b">
         <v>0</v>
@@ -13297,7 +13282,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -13311,7 +13296,7 @@
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -13325,7 +13310,7 @@
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -13339,7 +13324,7 @@
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -13353,7 +13338,7 @@
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -13367,7 +13352,7 @@
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -13381,7 +13366,7 @@
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -13395,7 +13380,7 @@
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -13409,7 +13394,7 @@
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
@@ -13423,7 +13408,7 @@
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
@@ -14368,7 +14353,7 @@
     </row>
     <row r="84" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D84" t="s">
         <v>312</v>
@@ -16435,7 +16420,7 @@
         <v>242</v>
       </c>
       <c r="D249" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F249" t="b">
         <v>0</v>
